--- a/08kappa/policy_tagger_dataframe_kappa.xlsx
+++ b/08kappa/policy_tagger_dataframe_kappa.xlsx
@@ -22,13 +22,13 @@
     <t>kappa</t>
   </si>
   <si>
+    <t>agosnell@purdue.edu</t>
+  </si>
+  <si>
     <t>xie188@purdue.edu</t>
   </si>
   <si>
     <t>tdeters@purdue.edu</t>
-  </si>
-  <si>
-    <t>agosnell@purdue.edu</t>
   </si>
   <si>
     <t>dai77@purdue.edu</t>
